--- a/output/StructureDefinition-NatlDir-Validation.xlsx
+++ b/output/StructureDefinition-NatlDir-Validation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Validation</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Validation</t>
   </si>
   <si>
     <t>Version</t>
@@ -649,7 +649,7 @@
     <t>VerificationResult.primarySource.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole)
 </t>
   </si>
   <si>
@@ -758,7 +758,7 @@
     <t>VerificationResult.attestation.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole)
 </t>
   </si>
   <si>
@@ -856,7 +856,7 @@
     <t>VerificationResult.validator.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-Validation.xlsx
+++ b/output/StructureDefinition-NatlDir-Validation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Validation</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Validation</t>
   </si>
   <si>
     <t>Version</t>
@@ -649,7 +649,7 @@
     <t>VerificationResult.primarySource.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole)
 </t>
   </si>
   <si>
@@ -758,7 +758,7 @@
     <t>VerificationResult.attestation.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole)
 </t>
   </si>
   <si>
@@ -856,7 +856,7 @@
     <t>VerificationResult.validator.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-Validation.xlsx
+++ b/output/StructureDefinition-NatlDir-Validation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Validation</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Validation</t>
   </si>
   <si>
     <t>Version</t>
@@ -649,7 +649,7 @@
     <t>VerificationResult.primarySource.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-PractitionerRole)
 </t>
   </si>
   <si>
@@ -758,7 +758,7 @@
     <t>VerificationResult.attestation.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-PractitionerRole)
 </t>
   </si>
   <si>
@@ -856,7 +856,7 @@
     <t>VerificationResult.validator.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDir-Validation.xlsx
+++ b/output/StructureDefinition-NatlDir-Validation.xlsx
@@ -649,7 +649,7 @@
     <t>VerificationResult.primarySource.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -758,7 +758,7 @@
     <t>VerificationResult.attestation.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Practitioner|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization|http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
@@ -856,7 +856,7 @@
     <t>VerificationResult.validator.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -5115,7 +5115,7 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>243</v>
